--- a/FinalResults.xlsx
+++ b/FinalResults.xlsx
@@ -3457,7 +3457,65 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2"/>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="s">
         <v>24</v>

--- a/FinalResults.xlsx
+++ b/FinalResults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2247" uniqueCount="477">
   <si>
     <t>deviceType</t>
   </si>
@@ -61,15 +61,15 @@
     <t>primary</t>
   </si>
   <si>
+    <t>hppttId</t>
+  </si>
+  <si>
     <t>ban</t>
   </si>
   <si>
     <t>smUser</t>
   </si>
   <si>
-    <t>hppttId</t>
-  </si>
-  <si>
     <t>SMRTPH</t>
   </si>
   <si>
@@ -109,12 +109,12 @@
     <t>false</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>ONREG-19630</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>357205091157341</t>
   </si>
   <si>
@@ -322,49 +322,88 @@
     <t>08726971221</t>
   </si>
   <si>
-    <t>089191245709580850</t>
-  </si>
-  <si>
-    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"723747512"}</t>
-  </si>
-  <si>
-    <t>06643209021 06643209021</t>
-  </si>
-  <si>
-    <t>2104879675</t>
-  </si>
-  <si>
-    <t>IPH8P64GSIL1</t>
-  </si>
-  <si>
-    <t>iPhone 8 Plus 64GB</t>
-  </si>
-  <si>
-    <t>06643209021</t>
-  </si>
-  <si>
-    <t>131507015</t>
-  </si>
-  <si>
-    <t>ST1-27775</t>
-  </si>
-  <si>
-    <t>089394919308781859</t>
-  </si>
-  <si>
-    <t>80161589121 80161589121</t>
-  </si>
-  <si>
-    <t>2103920402</t>
-  </si>
-  <si>
-    <t>IPH864GBGLD1</t>
+    <t>990013610091857</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"Champaign","address1":"2109, Fox Drive","addressType":"S","state":"IL","addressId":"972650420"}</t>
+  </si>
+  <si>
+    <t>43643702221 43643702221</t>
+  </si>
+  <si>
+    <t>7734181214</t>
+  </si>
+  <si>
+    <t>OPGM1925BU1</t>
+  </si>
+  <si>
+    <t>Dark Horse</t>
+  </si>
+  <si>
+    <t>43643702221</t>
+  </si>
+  <si>
+    <t>288561502</t>
+  </si>
+  <si>
+    <t>ONREG-25688</t>
+  </si>
+  <si>
+    <t>089891789606881684</t>
+  </si>
+  <si>
+    <t>{"zip":"61820","country":"USA","city":"CHAMPAIGN","address1":"2109 FOX DR","addressType":"S","state":"IL","addressId":"250362429"}</t>
+  </si>
+  <si>
+    <t>01372759121 01372759121</t>
+  </si>
+  <si>
+    <t>8179199722</t>
+  </si>
+  <si>
+    <t>IPH732GBJB1</t>
+  </si>
+  <si>
+    <t>iPhone 7 32GB</t>
+  </si>
+  <si>
+    <t>iOS10</t>
+  </si>
+  <si>
+    <t>01372759121</t>
+  </si>
+  <si>
+    <t>266720569</t>
+  </si>
+  <si>
+    <t>ONREG-20095</t>
+  </si>
+  <si>
+    <t>089394868106494324</t>
+  </si>
+  <si>
+    <t>8176902160</t>
+  </si>
+  <si>
+    <t>RCCIP864GRY1</t>
   </si>
   <si>
     <t>iPhone 8 64GB</t>
   </si>
   <si>
-    <t>80161589121</t>
+    <t>06583341221</t>
+  </si>
+  <si>
+    <t>089594292004667669</t>
+  </si>
+  <si>
+    <t>8178005580</t>
+  </si>
+  <si>
+    <t>IPH864GBSIL1</t>
+  </si>
+  <si>
+    <t>57661702011</t>
   </si>
   <si>
     <t>aslAccount</t>
@@ -493,46 +532,31 @@
     <t>6</t>
   </si>
   <si>
-    <t>162.55</t>
-  </si>
-  <si>
-    <t>164.24</t>
-  </si>
-  <si>
-    <t>408.53</t>
-  </si>
-  <si>
-    <t>410.22</t>
-  </si>
-  <si>
-    <t>2019-11-29</t>
-  </si>
-  <si>
-    <t>-17</t>
-  </si>
-  <si>
-    <t>2020-01-28</t>
-  </si>
-  <si>
-    <t>204.3</t>
-  </si>
-  <si>
-    <t>2019-11-28</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>800.0</t>
-  </si>
-  <si>
-    <t>20.31875</t>
-  </si>
-  <si>
-    <t>830.0</t>
-  </si>
-  <si>
-    <t>140.98</t>
+    <t>49.93</t>
+  </si>
+  <si>
+    <t>70.38</t>
+  </si>
+  <si>
+    <t>528.27</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-14.05</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>149</t>
   </si>
   <si>
     <t>paymentType</t>
@@ -727,15 +751,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>XTugkM6SkCFI2HLgNqNrxU7Q9FQkjEmrKRns</t>
-  </si>
-  <si>
-    <t>12/25</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>mac</t>
   </si>
   <si>
@@ -769,18 +784,6 @@
     <t>10</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>ASLAUTOPY</t>
-  </si>
-  <si>
-    <t>["ASL"]</t>
-  </si>
-  <si>
-    <t>7.99</t>
-  </si>
-  <si>
     <t>contractType</t>
   </si>
   <si>
@@ -1012,43 +1015,97 @@
     <t>IPAD 6 GEN GLD 32GB KIT</t>
   </si>
   <si>
-    <t>PR-L-101931500</t>
-  </si>
-  <si>
-    <t>33.34</t>
-  </si>
-  <si>
-    <t>199.87</t>
-  </si>
-  <si>
-    <t>2018-05-11</t>
-  </si>
-  <si>
-    <t>55105725</t>
-  </si>
-  <si>
-    <t>217.86</t>
-  </si>
-  <si>
-    <t>IPH 8P SILVER 64 SGL</t>
-  </si>
-  <si>
-    <t>PR-L-101931676</t>
-  </si>
-  <si>
-    <t>29.17</t>
-  </si>
-  <si>
-    <t>174.93</t>
-  </si>
-  <si>
-    <t>55105724</t>
-  </si>
-  <si>
-    <t>190.67</t>
-  </si>
-  <si>
-    <t>IPH 8 GOLD 64 SGL</t>
+    <t>WEB-L-154067540</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>2019-08-29</t>
+  </si>
+  <si>
+    <t>75743021</t>
+  </si>
+  <si>
+    <t>245.32</t>
+  </si>
+  <si>
+    <t>OPGM1925BLU</t>
+  </si>
+  <si>
+    <t>ONEPLUS GM1925 BLU KIT</t>
+  </si>
+  <si>
+    <t>WEB-L-95910952</t>
+  </si>
+  <si>
+    <t>11.46</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>137.43</t>
+  </si>
+  <si>
+    <t>22.92</t>
+  </si>
+  <si>
+    <t>2018-03-13</t>
+  </si>
+  <si>
+    <t>52664799</t>
+  </si>
+  <si>
+    <t>M2M</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>190198542779</t>
+  </si>
+  <si>
+    <t>IPHONE 7 JET 32GB KIT</t>
+  </si>
+  <si>
+    <t>{"lastInstallmentDueDate":"2020-07-15","installmentAmount":13.34,"term":6,"firstInstallmentDueDate":"2020-01-15","loanNumber":"WEB-F-673248","lastInstallmentAmount":13.3,"loanAmount":90,"status":"P"}</t>
+  </si>
+  <si>
+    <t>WEB-L-137560808</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2019-04-04</t>
+  </si>
+  <si>
+    <t>69441370</t>
+  </si>
+  <si>
+    <t>160.28</t>
+  </si>
+  <si>
+    <t>72.91</t>
+  </si>
+  <si>
+    <t>RCCIPH864GRY</t>
+  </si>
+  <si>
+    <t>USD IPH 8 GRAY 64 KIT</t>
   </si>
   <si>
     <t>eligible</t>
@@ -1141,6 +1198,15 @@
     <t>2020-12-01</t>
   </si>
   <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
     <t>socCode</t>
   </si>
   <si>
@@ -1348,58 +1414,37 @@
     <t>10.0</t>
   </si>
   <si>
-    <t>ASLCHGBAN</t>
-  </si>
-  <si>
-    <t>Spending Limit Program Charge</t>
-  </si>
-  <si>
-    <t>2017-11-06</t>
-  </si>
-  <si>
-    <t>HOTLINE</t>
-  </si>
-  <si>
-    <t>Hotline</t>
+    <t>2019-09-15</t>
+  </si>
+  <si>
+    <t>HATCHTRL</t>
+  </si>
+  <si>
+    <t>Hatch 3 Month Trial</t>
+  </si>
+  <si>
+    <t>2019-08-30</t>
+  </si>
+  <si>
+    <t>2019-08-26</t>
+  </si>
+  <si>
+    <t>2019-08-15</t>
+  </si>
+  <si>
+    <t>HULULIVE2</t>
+  </si>
+  <si>
+    <t>Hulu + Live TV $44.99 mo</t>
   </si>
   <si>
     <t>2019-12-12</t>
   </si>
   <si>
-    <t>2019-04-06</t>
-  </si>
-  <si>
-    <t>2019-01-05</t>
-  </si>
-  <si>
-    <t>2018-01-06</t>
-  </si>
-  <si>
-    <t>PDSHS10G</t>
-  </si>
-  <si>
-    <t>PDSIPIE</t>
-  </si>
-  <si>
-    <t>Premium Intl Experience</t>
-  </si>
-  <si>
-    <t>2018-05-12</t>
-  </si>
-  <si>
-    <t>TEPPLUS</t>
-  </si>
-  <si>
-    <t>$15 Sprint Complete-smartphone</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>ACS</t>
-  </si>
-  <si>
-    <t>ACS-$0 add $15 Sprint Complete</t>
+    <t>2018-03-15</t>
+  </si>
+  <si>
+    <t>2018-07-13</t>
   </si>
   <si>
     <t>browseEligibile</t>
@@ -1445,19 +1490,6 @@
     {
       "errorCode": "PENDING_PLAN_SERVICE_TRANSACTION",
       "errorMessage": "PENDING_PLAN_SERVICE_TRANSACTION not allowed to browse"
-    }
-  ]
-}</t>
-  </si>
-  <si>
-    <t>{
-  "browseEligibile": false,
-  "addToCartEligibile": false,
-  "checkoutEligibile": false,
-  "errors": [
-    {
-      "errorCode": "ACCOUNT_HOTLINED_OR_SUSPENDED",
-      "errorMessage": "ACCOUNT_HOTLINED_OR_SUSPENDED is not allowed to browse"
     }
   ]
 }</t>
@@ -1505,7 +1537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1560,12 +1592,6 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -1608,19 +1634,13 @@
         <v>28</v>
       </c>
       <c r="N2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" t="s">
         <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
       </c>
       <c r="P2" t="s">
         <v>30</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -1664,25 +1684,13 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
         <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
       </c>
       <c r="P3" t="s">
         <v>30</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1726,31 +1734,13 @@
         <v>28</v>
       </c>
       <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
-        <v>29</v>
-      </c>
       <c r="P4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4" t="s">
-        <v>29</v>
-      </c>
-      <c r="U4" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1794,37 +1784,13 @@
         <v>28</v>
       </c>
       <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="s">
         <v>26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
       </c>
       <c r="P5" t="s">
         <v>30</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" t="s">
-        <v>29</v>
-      </c>
-      <c r="U5" t="s">
-        <v>26</v>
-      </c>
-      <c r="V5" t="s">
-        <v>29</v>
-      </c>
-      <c r="W5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1859,7 +1825,7 @@
         <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
         <v>27</v>
@@ -1868,18 +1834,12 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="s">
         <v>60</v>
       </c>
-      <c r="O6" t="s">
-        <v>61</v>
-      </c>
       <c r="P6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>60</v>
-      </c>
-      <c r="R6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1915,7 +1875,7 @@
         <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
         <v>27</v>
@@ -1924,24 +1884,12 @@
         <v>28</v>
       </c>
       <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="s">
         <v>60</v>
       </c>
-      <c r="O7" t="s">
-        <v>61</v>
-      </c>
       <c r="P7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7" t="s">
-        <v>61</v>
-      </c>
-      <c r="S7" t="s">
-        <v>60</v>
-      </c>
-      <c r="T7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1986,30 +1934,12 @@
         <v>28</v>
       </c>
       <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" t="s">
         <v>60</v>
       </c>
-      <c r="O8" t="s">
-        <v>61</v>
-      </c>
       <c r="P8" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>60</v>
-      </c>
-      <c r="R8" t="s">
-        <v>61</v>
-      </c>
-      <c r="S8" t="s">
-        <v>60</v>
-      </c>
-      <c r="T8" t="s">
-        <v>61</v>
-      </c>
-      <c r="U8" t="s">
-        <v>60</v>
-      </c>
-      <c r="V8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2045,7 +1975,7 @@
         <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
         <v>27</v>
@@ -2054,36 +1984,12 @@
         <v>28</v>
       </c>
       <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
         <v>60</v>
       </c>
-      <c r="O9" t="s">
-        <v>61</v>
-      </c>
       <c r="P9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>60</v>
-      </c>
-      <c r="R9" t="s">
-        <v>61</v>
-      </c>
-      <c r="S9" t="s">
-        <v>60</v>
-      </c>
-      <c r="T9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U9" t="s">
-        <v>60</v>
-      </c>
-      <c r="V9" t="s">
-        <v>61</v>
-      </c>
-      <c r="W9" t="s">
-        <v>60</v>
-      </c>
-      <c r="X9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2119,7 +2025,7 @@
         <v>83</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
@@ -2128,42 +2034,12 @@
         <v>28</v>
       </c>
       <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="s">
         <v>60</v>
       </c>
-      <c r="O10" t="s">
-        <v>61</v>
-      </c>
       <c r="P10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>60</v>
-      </c>
-      <c r="R10" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" t="s">
-        <v>60</v>
-      </c>
-      <c r="T10" t="s">
-        <v>61</v>
-      </c>
-      <c r="U10" t="s">
-        <v>60</v>
-      </c>
-      <c r="V10" t="s">
-        <v>61</v>
-      </c>
-      <c r="W10" t="s">
-        <v>60</v>
-      </c>
-      <c r="X10" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2199,7 +2075,7 @@
         <v>92</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L11" t="s">
         <v>27</v>
@@ -2208,18 +2084,12 @@
         <v>28</v>
       </c>
       <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="s">
         <v>93</v>
       </c>
-      <c r="O11" t="s">
-        <v>94</v>
-      </c>
       <c r="P11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>93</v>
-      </c>
-      <c r="R11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2255,7 +2125,7 @@
         <v>99</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s">
         <v>27</v>
@@ -2264,24 +2134,12 @@
         <v>28</v>
       </c>
       <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="s">
         <v>93</v>
       </c>
-      <c r="O12" t="s">
-        <v>94</v>
-      </c>
       <c r="P12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>93</v>
-      </c>
-      <c r="R12" t="s">
-        <v>94</v>
-      </c>
-      <c r="S12" t="s">
-        <v>93</v>
-      </c>
-      <c r="T12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2296,7 +2154,7 @@
         <v>101</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>102</v>
@@ -2311,13 +2169,13 @@
         <v>105</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="J13" t="s">
         <v>106</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
         <v>27</v>
@@ -2326,18 +2184,12 @@
         <v>28</v>
       </c>
       <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="s">
         <v>107</v>
       </c>
-      <c r="O13" t="s">
-        <v>108</v>
-      </c>
       <c r="P13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R13" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2349,31 +2201,31 @@
         <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K14" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="L14" t="s">
         <v>27</v>
@@ -2382,25 +2234,113 @@
         <v>28</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="O14" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>107</v>
-      </c>
-      <c r="R14" t="s">
-        <v>108</v>
-      </c>
-      <c r="S14" t="s">
-        <v>107</v>
-      </c>
-      <c r="T14" t="s">
-        <v>108</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="s">
+        <v>117</v>
+      </c>
+      <c r="P15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" t="s">
+        <v>117</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2410,7 +2350,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2418,67 +2358,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="K1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="M1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="N1" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="P1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="Q1" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="R1" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="S1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="T1" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="U1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -2486,61 +2426,61 @@
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L2" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M2" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="O2" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U2" t="s">
         <v>26</v>
@@ -2551,61 +2491,61 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L3" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M3" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="N3" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="O3" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U3" t="s">
         <v>60</v>
@@ -2616,61 +2556,61 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H4" t="s">
         <v>150</v>
       </c>
-      <c r="G4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" t="s">
-        <v>137</v>
-      </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="K4" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L4" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M4" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="N4" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O4" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U4" t="s">
         <v>93</v>
@@ -2678,67 +2618,132 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="H5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" t="s">
+        <v>152</v>
+      </c>
+      <c r="L5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5" t="s">
+        <v>172</v>
+      </c>
+      <c r="N5" t="s">
         <v>160</v>
       </c>
-      <c r="J5" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" t="s">
-        <v>162</v>
-      </c>
-      <c r="L5" t="s">
-        <v>163</v>
-      </c>
-      <c r="M5" t="s">
-        <v>164</v>
-      </c>
-      <c r="N5" t="s">
-        <v>165</v>
-      </c>
       <c r="O5" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="S5" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="T5" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="U5" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N6" t="s">
+        <v>177</v>
+      </c>
+      <c r="O6" t="s">
+        <v>178</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2748,7 +2753,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2756,81 +2761,81 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="I1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="K1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="L1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
         <v>26</v>
@@ -2838,40 +2843,40 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
         <v>60</v>
@@ -2879,40 +2884,40 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
         <v>93</v>
@@ -2920,43 +2925,84 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +3012,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2977,81 +3023,81 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
         <v>183</v>
       </c>
-      <c r="C1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D1" t="s">
-        <v>175</v>
-      </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="I1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="L1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="M1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="N1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="O1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="P1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="R1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="S1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H2" t="s">
         <v>28</v>
@@ -3060,31 +3106,31 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="N2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O2" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
         <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="S2" t="s">
         <v>26</v>
@@ -3092,25 +3138,25 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" t="s">
         <v>208</v>
       </c>
-      <c r="E3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" t="s">
-        <v>200</v>
-      </c>
       <c r="G3" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H3" t="s">
         <v>28</v>
@@ -3119,31 +3165,31 @@
         <v>28</v>
       </c>
       <c r="J3" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" t="s">
         <v>211</v>
       </c>
-      <c r="K3" t="s">
-        <v>203</v>
-      </c>
       <c r="L3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="N3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
         <v>28</v>
       </c>
       <c r="R3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="S3" t="s">
         <v>26</v>
@@ -3151,25 +3197,25 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
@@ -3181,28 +3227,28 @@
         <v>55</v>
       </c>
       <c r="K4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M4" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="N4" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="O4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="S4" t="s">
         <v>60</v>
@@ -3210,25 +3256,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H5" t="s">
         <v>28</v>
@@ -3240,28 +3286,28 @@
         <v>55</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="N5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O5" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
         <v>28</v>
       </c>
       <c r="R5" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="S5" t="s">
         <v>60</v>
@@ -3269,25 +3315,25 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="G6" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H6" t="s">
         <v>28</v>
@@ -3299,22 +3345,22 @@
         <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="N6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O6" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
         <v>28</v>
@@ -3328,25 +3374,25 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
@@ -3355,31 +3401,31 @@
         <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="K7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="L7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="N7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="s">
         <v>28</v>
       </c>
       <c r="R7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="S7" t="s">
         <v>93</v>
@@ -3387,61 +3433,120 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="N8" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="O8" t="s">
-        <v>204</v>
+        <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R8" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="S8" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3451,7 +3556,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3459,51 +3564,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -3512,27 +3617,27 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -3546,22 +3651,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="G4" t="s">
         <v>28</v>
@@ -3581,54 +3686,25 @@
         <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>174</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I6" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3638,7 +3714,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3646,132 +3722,132 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="R1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="S1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="T1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="U1" t="s">
         <v>6</v>
       </c>
       <c r="V1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="W1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="X1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K2" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q2" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="R2" t="s">
         <v>28</v>
@@ -3783,13 +3859,13 @@
         <v>28</v>
       </c>
       <c r="U2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="V2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="W2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X2" t="s">
         <v>26</v>
@@ -3800,55 +3876,55 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q3" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="R3" t="s">
         <v>28</v>
@@ -3860,13 +3936,13 @@
         <v>28</v>
       </c>
       <c r="U3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="V3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="W3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X3" t="s">
         <v>26</v>
@@ -3877,73 +3953,73 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X4" t="s">
         <v>26</v>
@@ -3954,73 +4030,73 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K5" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="V5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="W5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X5" t="s">
         <v>26</v>
@@ -4031,73 +4107,73 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X6" t="s">
         <v>60</v>
@@ -4108,73 +4184,73 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X7" t="s">
         <v>60</v>
@@ -4185,55 +4261,55 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K8" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M8" t="s">
         <v>28</v>
       </c>
       <c r="N8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q8" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="R8" t="s">
         <v>28</v>
@@ -4245,13 +4321,13 @@
         <v>28</v>
       </c>
       <c r="U8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X8" t="s">
         <v>60</v>
@@ -4262,55 +4338,55 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K9" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M9" t="s">
         <v>19</v>
       </c>
       <c r="N9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q9" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="R9" t="s">
         <v>19</v>
@@ -4322,13 +4398,13 @@
         <v>28</v>
       </c>
       <c r="U9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="V9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="W9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X9" t="s">
         <v>60</v>
@@ -4339,73 +4415,73 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X10" t="s">
         <v>60</v>
@@ -4416,73 +4492,73 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G11" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K11" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X11" t="s">
         <v>93</v>
@@ -4493,73 +4569,73 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X12" t="s">
         <v>93</v>
@@ -4570,55 +4646,55 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G13" t="s">
-        <v>249</v>
+        <v>334</v>
       </c>
       <c r="H13" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="I13" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="J13" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M13" t="s">
         <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P13" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q13" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="R13" t="s">
         <v>28</v>
@@ -4630,13 +4706,13 @@
         <v>28</v>
       </c>
       <c r="U13" t="s">
-        <v>104</v>
+        <v>340</v>
       </c>
       <c r="V13" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="W13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X13" t="s">
         <v>107</v>
@@ -4647,79 +4723,233 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C14" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="G14" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="H14" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="I14" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="J14" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="M14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N14" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O14" t="s">
+        <v>349</v>
+      </c>
+      <c r="P14" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>174</v>
+      </c>
+      <c r="R14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" t="s">
+        <v>351</v>
+      </c>
+      <c r="V14" t="s">
+        <v>352</v>
+      </c>
+      <c r="W14" t="s">
+        <v>353</v>
+      </c>
+      <c r="X14" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>355</v>
+      </c>
+      <c r="G15" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" t="s">
+        <v>315</v>
+      </c>
+      <c r="I15" t="s">
+        <v>316</v>
+      </c>
+      <c r="J15" t="s">
+        <v>356</v>
+      </c>
+      <c r="K15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L15" t="s">
+        <v>357</v>
+      </c>
+      <c r="M15" t="s">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
         <v>287</v>
       </c>
-      <c r="P14" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>249</v>
-      </c>
-      <c r="R14" t="s">
-        <v>28</v>
-      </c>
-      <c r="S14" t="s">
-        <v>28</v>
-      </c>
-      <c r="T14" t="s">
-        <v>28</v>
-      </c>
-      <c r="U14" t="s">
-        <v>112</v>
-      </c>
-      <c r="V14" t="s">
-        <v>342</v>
-      </c>
-      <c r="W14" t="s">
-        <v>30</v>
-      </c>
-      <c r="X14" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>114</v>
+      <c r="O15" t="s">
+        <v>319</v>
+      </c>
+      <c r="P15" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>359</v>
+      </c>
+      <c r="R15" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U15" t="s">
+        <v>360</v>
+      </c>
+      <c r="V15" t="s">
+        <v>361</v>
+      </c>
+      <c r="W15" t="s">
+        <v>29</v>
+      </c>
+      <c r="X15" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" t="s">
+        <v>29</v>
+      </c>
+      <c r="V16" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" t="s">
+        <v>29</v>
+      </c>
+      <c r="X16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4729,7 +4959,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4737,58 +4967,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="C1" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="D1" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="E1" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="F1" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="G1" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="H1" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="I1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J1" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="K1" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="L1" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="M1" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="N1" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="O1" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="P1" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="Q1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2">
@@ -4799,46 +5029,46 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
       </c>
       <c r="G2" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
         <v>26</v>
@@ -4855,46 +5085,46 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="s">
         <v>26</v>
@@ -4911,46 +5141,46 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q4" t="s">
         <v>26</v>
@@ -4967,46 +5197,46 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J5" t="s">
         <v>28</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="M5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q5" t="s">
         <v>26</v>
@@ -5023,46 +5253,46 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
         <v>60</v>
@@ -5079,34 +5309,34 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="H7" t="s">
         <v>28</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s">
         <v>28</v>
@@ -5115,10 +5345,10 @@
         <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q7" t="s">
         <v>60</v>
@@ -5135,34 +5365,34 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
         <v>28</v>
@@ -5171,10 +5401,10 @@
         <v>28</v>
       </c>
       <c r="O8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" t="s">
         <v>60</v>
@@ -5191,46 +5421,46 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
       </c>
       <c r="I9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J9" t="s">
         <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="L9" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="M9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q9" t="s">
         <v>60</v>
@@ -5247,34 +5477,34 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="H10" t="s">
         <v>28</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M10" t="s">
         <v>28</v>
@@ -5283,10 +5513,10 @@
         <v>28</v>
       </c>
       <c r="O10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="s">
         <v>60</v>
@@ -5319,7 +5549,7 @@
         <v>92</v>
       </c>
       <c r="S11" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12">
@@ -5330,34 +5560,34 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="F12" t="s">
         <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s">
         <v>28</v>
@@ -5366,10 +5596,10 @@
         <v>28</v>
       </c>
       <c r="O12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q12" t="s">
         <v>93</v>
@@ -5380,52 +5610,52 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q13" t="s">
         <v>107</v>
@@ -5442,52 +5672,164 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" t="s">
+        <v>377</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>277</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" t="s">
+        <v>389</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>117</v>
+      </c>
+      <c r="R14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>390</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>390</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" t="s">
+        <v>390</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>277</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" t="s">
         <v>358</v>
       </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" t="s">
-        <v>30</v>
-      </c>
-      <c r="N14" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>107</v>
-      </c>
-      <c r="R14" t="s">
-        <v>114</v>
+      <c r="M15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>117</v>
+      </c>
+      <c r="R15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>377</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>377</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>377</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>117</v>
+      </c>
+      <c r="R16" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -5497,7 +5839,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5505,57 +5847,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="D1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E1" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="F1" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="G1" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
         <v>26</v>
@@ -5564,30 +5906,30 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
         <v>26</v>
@@ -5596,30 +5938,30 @@
         <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -5628,30 +5970,30 @@
         <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="C5" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
         <v>26</v>
@@ -5660,30 +6002,30 @@
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D6" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="E6" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" t="s">
         <v>26</v>
@@ -5692,30 +6034,30 @@
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
         <v>26</v>
@@ -5724,30 +6066,30 @@
         <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D8" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="E8" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
         <v>26</v>
@@ -5756,30 +6098,30 @@
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
         <v>26</v>
@@ -5788,30 +6130,30 @@
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H10" t="s">
         <v>26</v>
@@ -5820,30 +6162,30 @@
         <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="B11" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="E11" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" t="s">
         <v>26</v>
@@ -5852,30 +6194,30 @@
         <v>35</v>
       </c>
       <c r="J11" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="E12" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12" t="s">
         <v>26</v>
@@ -5884,30 +6226,30 @@
         <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="E13" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" t="s">
         <v>26</v>
@@ -5916,30 +6258,30 @@
         <v>35</v>
       </c>
       <c r="J13" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="B14" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D14" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" t="s">
         <v>26</v>
@@ -5948,30 +6290,30 @@
         <v>35</v>
       </c>
       <c r="J14" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D15" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15" t="s">
         <v>26</v>
@@ -5980,30 +6322,30 @@
         <v>35</v>
       </c>
       <c r="J15" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="E16" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16" t="s">
         <v>26</v>
@@ -6012,30 +6354,30 @@
         <v>35</v>
       </c>
       <c r="J16" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="B17" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D17" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
         <v>26</v>
@@ -6044,30 +6386,30 @@
         <v>35</v>
       </c>
       <c r="J17" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
         <v>26</v>
@@ -6076,30 +6418,30 @@
         <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="B19" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
         <v>26</v>
@@ -6108,30 +6450,30 @@
         <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
         <v>26</v>
@@ -6140,30 +6482,30 @@
         <v>51</v>
       </c>
       <c r="J20" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="B21" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D21" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="E21" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
         <v>26</v>
@@ -6172,30 +6514,30 @@
         <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="B22" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="E22" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H22" t="s">
         <v>26</v>
@@ -6204,30 +6546,30 @@
         <v>51</v>
       </c>
       <c r="J22" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="B23" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H23" t="s">
         <v>26</v>
@@ -6236,30 +6578,30 @@
         <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="B24" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="C24" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D24" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="E24" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" t="s">
         <v>26</v>
@@ -6268,30 +6610,30 @@
         <v>51</v>
       </c>
       <c r="J24" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="B25" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D25" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="E25" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25" t="s">
         <v>26</v>
@@ -6300,30 +6642,30 @@
         <v>51</v>
       </c>
       <c r="J25" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26" t="s">
         <v>60</v>
@@ -6332,30 +6674,30 @@
         <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27" t="s">
         <v>60</v>
@@ -6364,30 +6706,30 @@
         <v>59</v>
       </c>
       <c r="J27" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" t="s">
         <v>60</v>
@@ -6396,30 +6738,30 @@
         <v>67</v>
       </c>
       <c r="J28" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="B29" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D29" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="E29" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29" t="s">
         <v>60</v>
@@ -6428,30 +6770,30 @@
         <v>67</v>
       </c>
       <c r="J29" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="B30" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -6460,30 +6802,30 @@
         <v>67</v>
       </c>
       <c r="J30" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="B31" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="E31" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31" t="s">
         <v>60</v>
@@ -6492,30 +6834,30 @@
         <v>67</v>
       </c>
       <c r="J31" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="C32" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="E32" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32" t="s">
         <v>60</v>
@@ -6524,30 +6866,30 @@
         <v>67</v>
       </c>
       <c r="J32" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s">
         <v>60</v>
@@ -6556,30 +6898,30 @@
         <v>72</v>
       </c>
       <c r="J33" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="B34" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="E34" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H34" t="s">
         <v>60</v>
@@ -6588,30 +6930,30 @@
         <v>72</v>
       </c>
       <c r="J34" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="B35" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="C35" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D35" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="E35" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H35" t="s">
         <v>60</v>
@@ -6620,30 +6962,30 @@
         <v>72</v>
       </c>
       <c r="J35" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="B36" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="C36" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="D36" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="E36" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H36" t="s">
         <v>60</v>
@@ -6652,30 +6994,30 @@
         <v>72</v>
       </c>
       <c r="J36" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="B37" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="C37" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D37" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="E37" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H37" t="s">
         <v>60</v>
@@ -6684,30 +7026,30 @@
         <v>72</v>
       </c>
       <c r="J37" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="B38" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="C38" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D38" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="E38" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
@@ -6716,30 +7058,30 @@
         <v>72</v>
       </c>
       <c r="J38" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="B39" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="E39" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H39" t="s">
         <v>60</v>
@@ -6748,30 +7090,30 @@
         <v>72</v>
       </c>
       <c r="J39" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="B40" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="C40" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D40" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H40" t="s">
         <v>60</v>
@@ -6780,30 +7122,30 @@
         <v>72</v>
       </c>
       <c r="J40" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H41" t="s">
         <v>60</v>
@@ -6812,30 +7154,30 @@
         <v>78</v>
       </c>
       <c r="J41" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="B42" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D42" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="E42" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H42" t="s">
         <v>60</v>
@@ -6844,30 +7186,30 @@
         <v>78</v>
       </c>
       <c r="J42" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="B43" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="E43" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43" t="s">
         <v>60</v>
@@ -6876,30 +7218,30 @@
         <v>78</v>
       </c>
       <c r="J43" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="B44" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D44" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="E44" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H44" t="s">
         <v>60</v>
@@ -6908,30 +7250,30 @@
         <v>78</v>
       </c>
       <c r="J44" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="B45" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="E45" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H45" t="s">
         <v>60</v>
@@ -6940,30 +7282,30 @@
         <v>78</v>
       </c>
       <c r="J45" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="B46" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="E46" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H46" t="s">
         <v>60</v>
@@ -6972,30 +7314,30 @@
         <v>78</v>
       </c>
       <c r="J46" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="B47" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D47" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="E47" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H47" t="s">
         <v>60</v>
@@ -7004,30 +7346,30 @@
         <v>78</v>
       </c>
       <c r="J47" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="B48" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D48" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="E48" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48" t="s">
         <v>60</v>
@@ -7036,30 +7378,30 @@
         <v>78</v>
       </c>
       <c r="J48" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49" t="s">
         <v>60</v>
@@ -7068,30 +7410,30 @@
         <v>83</v>
       </c>
       <c r="J49" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50" t="s">
         <v>60</v>
@@ -7100,30 +7442,30 @@
         <v>83</v>
       </c>
       <c r="J50" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51" t="s">
         <v>93</v>
@@ -7132,30 +7474,30 @@
         <v>92</v>
       </c>
       <c r="J51" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H52" t="s">
         <v>93</v>
@@ -7164,30 +7506,30 @@
         <v>92</v>
       </c>
       <c r="J52" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53" t="s">
         <v>93</v>
@@ -7196,30 +7538,30 @@
         <v>99</v>
       </c>
       <c r="J53" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="B54" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D54" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="E54" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H54" t="s">
         <v>93</v>
@@ -7228,30 +7570,30 @@
         <v>99</v>
       </c>
       <c r="J54" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="E55" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H55" t="s">
         <v>93</v>
@@ -7260,30 +7602,30 @@
         <v>99</v>
       </c>
       <c r="J55" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="C56" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="D56" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="E56" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H56" t="s">
         <v>93</v>
@@ -7292,30 +7634,30 @@
         <v>99</v>
       </c>
       <c r="J56" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="B57" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="C57" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D57" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="E57" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H57" t="s">
         <v>93</v>
@@ -7324,30 +7666,30 @@
         <v>99</v>
       </c>
       <c r="J57" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="B58" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="C58" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D58" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="E58" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H58" t="s">
         <v>93</v>
@@ -7356,30 +7698,30 @@
         <v>99</v>
       </c>
       <c r="J58" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="B59" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="C59" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D59" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="E59" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H59" t="s">
         <v>93</v>
@@ -7388,30 +7730,30 @@
         <v>99</v>
       </c>
       <c r="J59" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="B60" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="C60" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="D60" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="E60" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60" t="s">
         <v>93</v>
@@ -7420,30 +7762,30 @@
         <v>99</v>
       </c>
       <c r="J60" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>438</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>439</v>
+        <v>29</v>
       </c>
       <c r="C61" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="D61" t="s">
-        <v>440</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H61" t="s">
         <v>107</v>
@@ -7452,30 +7794,30 @@
         <v>106</v>
       </c>
       <c r="J61" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>441</v>
+        <v>398</v>
       </c>
       <c r="B62" t="s">
-        <v>442</v>
+        <v>399</v>
       </c>
       <c r="C62" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="E62" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H62" t="s">
         <v>107</v>
@@ -7484,30 +7826,30 @@
         <v>106</v>
       </c>
       <c r="J62" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>461</v>
       </c>
       <c r="B63" t="s">
-        <v>377</v>
+        <v>462</v>
       </c>
       <c r="C63" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="E63" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63" t="s">
         <v>107</v>
@@ -7516,30 +7858,30 @@
         <v>106</v>
       </c>
       <c r="J63" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B64" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D64" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="E64" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64" t="s">
         <v>107</v>
@@ -7548,30 +7890,30 @@
         <v>106</v>
       </c>
       <c r="J64" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="B65" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="C65" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D65" t="s">
-        <v>333</v>
+        <v>465</v>
       </c>
       <c r="E65" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H65" t="s">
         <v>107</v>
@@ -7580,30 +7922,30 @@
         <v>106</v>
       </c>
       <c r="J65" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="B66" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="C66" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D66" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="E66" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H66" t="s">
         <v>107</v>
@@ -7612,30 +7954,30 @@
         <v>106</v>
       </c>
       <c r="J66" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="B67" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="E67" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67" t="s">
         <v>107</v>
@@ -7644,30 +7986,30 @@
         <v>106</v>
       </c>
       <c r="J67" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="B68" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="C68" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D68" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="E68" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H68" t="s">
         <v>107</v>
@@ -7676,231 +8018,487 @@
         <v>106</v>
       </c>
       <c r="J68" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>438</v>
+        <v>29</v>
       </c>
       <c r="B69" t="s">
-        <v>439</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>333</v>
+        <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I69" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J69" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>376</v>
+        <v>466</v>
       </c>
       <c r="B70" t="s">
-        <v>377</v>
+        <v>467</v>
       </c>
       <c r="C70" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="E70" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H70" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I70" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J70" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="B71" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="C71" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D71" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="E71" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I71" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J71" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="B72" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="C72" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E72" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H72" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I72" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J72" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>447</v>
+        <v>410</v>
       </c>
       <c r="B73" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C73" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D73" t="s">
-        <v>333</v>
+        <v>445</v>
       </c>
       <c r="E73" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I73" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J73" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="B74" t="s">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="C74" t="s">
-        <v>453</v>
+        <v>150</v>
       </c>
       <c r="D74" t="s">
-        <v>333</v>
+        <v>469</v>
       </c>
       <c r="E74" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H74" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I74" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J74" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>454</v>
+        <v>29</v>
       </c>
       <c r="B75" t="s">
-        <v>455</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="D75" t="s">
-        <v>333</v>
+        <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H75" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I75" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J75" t="s">
-        <v>379</v>
+        <v>397</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>410</v>
+      </c>
+      <c r="B76" t="s">
+        <v>411</v>
+      </c>
+      <c r="C76" t="s">
+        <v>150</v>
+      </c>
+      <c r="D76" t="s">
+        <v>356</v>
+      </c>
+      <c r="E76" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" t="s">
+        <v>29</v>
+      </c>
+      <c r="H76" t="s">
+        <v>117</v>
+      </c>
+      <c r="I76" t="s">
+        <v>123</v>
+      </c>
+      <c r="J76" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>413</v>
+      </c>
+      <c r="B77" t="s">
+        <v>414</v>
+      </c>
+      <c r="C77" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" t="s">
+        <v>356</v>
+      </c>
+      <c r="E77" t="s">
+        <v>211</v>
+      </c>
+      <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
+        <v>29</v>
+      </c>
+      <c r="H77" t="s">
+        <v>117</v>
+      </c>
+      <c r="I77" t="s">
+        <v>123</v>
+      </c>
+      <c r="J77" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>407</v>
+      </c>
+      <c r="B78" t="s">
+        <v>408</v>
+      </c>
+      <c r="C78" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" t="s">
+        <v>356</v>
+      </c>
+      <c r="E78" t="s">
+        <v>211</v>
+      </c>
+      <c r="F78" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" t="s">
+        <v>29</v>
+      </c>
+      <c r="H78" t="s">
+        <v>117</v>
+      </c>
+      <c r="I78" t="s">
+        <v>123</v>
+      </c>
+      <c r="J78" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D79" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" t="s">
+        <v>29</v>
+      </c>
+      <c r="H79" t="s">
+        <v>117</v>
+      </c>
+      <c r="I79" t="s">
+        <v>127</v>
+      </c>
+      <c r="J79" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>398</v>
+      </c>
+      <c r="B80" t="s">
+        <v>399</v>
+      </c>
+      <c r="C80" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" t="s">
+        <v>400</v>
+      </c>
+      <c r="E80" t="s">
+        <v>211</v>
+      </c>
+      <c r="F80" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H80" t="s">
+        <v>117</v>
+      </c>
+      <c r="I80" t="s">
+        <v>127</v>
+      </c>
+      <c r="J80" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>415</v>
+      </c>
+      <c r="B81" t="s">
+        <v>416</v>
+      </c>
+      <c r="C81" t="s">
+        <v>150</v>
+      </c>
+      <c r="D81" t="s">
+        <v>417</v>
+      </c>
+      <c r="E81" t="s">
+        <v>211</v>
+      </c>
+      <c r="F81" t="s">
+        <v>29</v>
+      </c>
+      <c r="G81" t="s">
+        <v>29</v>
+      </c>
+      <c r="H81" t="s">
+        <v>117</v>
+      </c>
+      <c r="I81" t="s">
+        <v>127</v>
+      </c>
+      <c r="J81" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>413</v>
+      </c>
+      <c r="B82" t="s">
+        <v>414</v>
+      </c>
+      <c r="C82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82" t="s">
+        <v>470</v>
+      </c>
+      <c r="E82" t="s">
+        <v>211</v>
+      </c>
+      <c r="F82" t="s">
+        <v>29</v>
+      </c>
+      <c r="G82" t="s">
+        <v>29</v>
+      </c>
+      <c r="H82" t="s">
+        <v>117</v>
+      </c>
+      <c r="I82" t="s">
+        <v>127</v>
+      </c>
+      <c r="J82" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>410</v>
+      </c>
+      <c r="B83" t="s">
+        <v>411</v>
+      </c>
+      <c r="C83" t="s">
+        <v>150</v>
+      </c>
+      <c r="D83" t="s">
+        <v>434</v>
+      </c>
+      <c r="E83" t="s">
+        <v>211</v>
+      </c>
+      <c r="F83" t="s">
+        <v>29</v>
+      </c>
+      <c r="G83" t="s">
+        <v>29</v>
+      </c>
+      <c r="H83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I83" t="s">
+        <v>127</v>
+      </c>
+      <c r="J83" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -7910,7 +8508,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7918,19 +8516,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="B1" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="C1" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2">
@@ -7944,7 +8542,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3">
@@ -7958,7 +8556,7 @@
         <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4">
@@ -7972,7 +8570,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5">
@@ -7986,7 +8584,7 @@
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6">
@@ -8068,7 +8666,7 @@
         <v>83</v>
       </c>
       <c r="F10" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11">
@@ -8082,7 +8680,7 @@
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12">
@@ -8103,31 +8701,71 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
       <c r="D13" t="s">
         <v>107</v>
       </c>
       <c r="E13" t="s">
         <v>106</v>
       </c>
-      <c r="F13" t="s">
-        <v>462</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F14" t="s">
-        <v>462</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
